--- a/BI Tasks/Taxi trip_evrublevskiy_month_reports/Report.xlsx
+++ b/BI Tasks/Taxi trip_evrublevskiy_month_reports/Report.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3863,7 +3862,7 @@
   <dimension ref="A2:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
